--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\2024HAUI\TTCSN\TTCSN_GROUP_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C46ED08-93AF-4D9E-BF1A-C5910D0C635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8C0BF5-7C13-4C22-AAAE-D2DACEB51BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7350" xr2:uid="{AF2C5D30-E93B-4691-BF7E-EE6664D2FC17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF2C5D30-E93B-4691-BF7E-EE6664D2FC17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,12 +405,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>101</v>
       </c>
@@ -424,7 +424,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -441,7 +441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
